--- a/biology/Médecine/Catatonie/Catatonie.xlsx
+++ b/biology/Médecine/Catatonie/Catatonie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La catatonie est un syndrome psychiatrique s'exprimant à la fois dans la sphère psychique et motrice. Elle constitue notamment une forme d'expression de nombreuses pathologies autant neurologiques que psychiatriques. Elle était considérée autrefois comme une forme exclusive de la schizophrénie (schizophrénie hébéphrénocatatonique), caractérisée par des périodes de passivité et de négativisme alternant avec des excitations soudaines[1]. Depuis, il est reconnu qu'un syndrome catatonique peut apparaitre lors de l'évolution de troubles de l'humeur (dépression ou troubles bipolaires) ou comme symptôme de maladies organiques, avec une prévalence principale des causes organiques sur les causes psychiatriques. Cette reconnaissance a amené le Manuel diagnostique et statistique des troubles mentaux (DSM-IV-TR) publié par l'Association américaine de psychiatrie (AAP) à ne pas la reconnaitre en tant que trouble à part ou comme une sous-forme de schizophrénie, mais comme un syndrome associé à d'autres troubles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La catatonie est un syndrome psychiatrique s'exprimant à la fois dans la sphère psychique et motrice. Elle constitue notamment une forme d'expression de nombreuses pathologies autant neurologiques que psychiatriques. Elle était considérée autrefois comme une forme exclusive de la schizophrénie (schizophrénie hébéphrénocatatonique), caractérisée par des périodes de passivité et de négativisme alternant avec des excitations soudaines. Depuis, il est reconnu qu'un syndrome catatonique peut apparaitre lors de l'évolution de troubles de l'humeur (dépression ou troubles bipolaires) ou comme symptôme de maladies organiques, avec une prévalence principale des causes organiques sur les causes psychiatriques. Cette reconnaissance a amené le Manuel diagnostique et statistique des troubles mentaux (DSM-IV-TR) publié par l'Association américaine de psychiatrie (AAP) à ne pas la reconnaitre en tant que trouble à part ou comme une sous-forme de schizophrénie, mais comme un syndrome associé à d'autres troubles.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les signes suivants y sont généralement associés :
 le négativisme, c’est-à-dire l'opposition à toute proposition. Celui-ci a été défini par Henri Ey comme le « refus de tout contact avec autrui et avec le réel ». Cela peut comprendre un refus du regard, un mutisme, une anorexie ou un apragmatisme total ;
@@ -547,20 +561,22 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>schizophrénie (type catatonique),
 trouble bipolaire,
 syndrome de stress post-traumatique,
 dépression,
-syndrome parkinsonien[2],
+syndrome parkinsonien,
 abus de substances ou lors d'une overdose,
-sevrage d'alcool[3],
-sevrage aux benzodiazépines[4],[5],[6],
+sevrage d'alcool,
+sevrage aux benzodiazépines
 accident vasculaire cérébral,
 encéphalite, troubles auto-immunes,
-trouble métabolique (hyponatrémie)[7],
-hypnose (état « Esdaile »)[8].</t>
+trouble métabolique (hyponatrémie),
+hypnose (état « Esdaile »).</t>
         </is>
       </c>
     </row>
@@ -588,11 +604,13 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les benzodiazépines sont les premiers traitements et de hautes doses sont souvent requises.
-L'électro-convulsivothérapie est parfois utilisée[9].
-Des antagonistes aux récepteurs NMDA sont parfois utilisés en cas de catatonie résistante aux benzodiazépines[10].</t>
+L'électro-convulsivothérapie est parfois utilisée.
+Des antagonistes aux récepteurs NMDA sont parfois utilisés en cas de catatonie résistante aux benzodiazépines.</t>
         </is>
       </c>
     </row>
@@ -620,13 +638,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa description a été établie par Karl Ludwig Kahlbaum en 1874[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa description a été établie par Karl Ludwig Kahlbaum en 1874.
 Emil Kraepelin la définit comme une des formes de démence précoce, qui est au demeurant l'ancêtre théorique de la schizophrénie.
 Eugen Bleuler l'inclut parmi les formes de schizophrénie. Ce dernier en définit la nature de symptômes extrêmes de la dissociation psychomotrice et y repère l'expression combinée du négativisme et de l'autisme au sens bleulerien.
-Controverse nosologique
-Les observations de médecins et certaines études amènent désormais à considérer que la catatonie n'est pas particulièrement liée à la schizophrénie mais davantage aux troubles de l'humeur et aux états d'intoxication, contrairement à ce que pensait Kraepelin. Des réactions à des agents neuroleptiques, ainsi que le syndrome malin des neuroleptiques, auraient amené à une confusion avec la catatonie maligne[12].
 </t>
         </is>
       </c>
@@ -652,19 +670,58 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Controverse nosologique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les observations de médecins et certaines études amènent désormais à considérer que la catatonie n'est pas particulièrement liée à la schizophrénie mais davantage aux troubles de l'humeur et aux états d'intoxication, contrairement à ce que pensait Kraepelin. Des réactions à des agents neuroleptiques, ainsi que le syndrome malin des neuroleptiques, auraient amené à une confusion avec la catatonie maligne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Catatonie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catatonie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Catatonie autistique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorna Wing, qui a mis en évidence la notion de spectre de l'autisme, et Amitta Shah ont considéré la spécificité du phénomène catatonique chez les personnes autistes, et examiné le caractère exacerbé des symptômes parmi cette population[13].
-Il existe une concordance comportementale entre les manifestations catatoniques classiques et les symptômes présents chez beaucoup de personnes autistes. La notion de handicap développemental permet de comprendre ces deux descriptions cliniques comme ayant une étiologie commune au niveau neurologique. Les traits communs comportent l'auto-agression, les stéréotypies, le mutisme, le négativisme, le discours stéréotypé, l'écholalie, les pathologies posturales, les grimaces, les maniérismes, la rigidité et l'agitation sans but[14].
-Lorna Wing et Amitta Shah suggèrent une différence entre la stupeur catatonique et la détérioration ressemblant à la catatonie, dans l'autisme. Afin d'éviter la chronicisation de ces symptômes, il est important d'employer la conjugaison d'un bilan clinique, d'un historique neurodéveloppemental individuel, ainsi que d'une estimation psychologique des forces et des faiblesses de la personne. L'usage de l'Interview diagnostique pour les troubles sociaux et de communication (Diagnostic interview for social and communication disorders ou DISCO) est préconisée[15]. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorna Wing, qui a mis en évidence la notion de spectre de l'autisme, et Amitta Shah ont considéré la spécificité du phénomène catatonique chez les personnes autistes, et examiné le caractère exacerbé des symptômes parmi cette population.
+Il existe une concordance comportementale entre les manifestations catatoniques classiques et les symptômes présents chez beaucoup de personnes autistes. La notion de handicap développemental permet de comprendre ces deux descriptions cliniques comme ayant une étiologie commune au niveau neurologique. Les traits communs comportent l'auto-agression, les stéréotypies, le mutisme, le négativisme, le discours stéréotypé, l'écholalie, les pathologies posturales, les grimaces, les maniérismes, la rigidité et l'agitation sans but.
+Lorna Wing et Amitta Shah suggèrent une différence entre la stupeur catatonique et la détérioration ressemblant à la catatonie, dans l'autisme. Afin d'éviter la chronicisation de ces symptômes, il est important d'employer la conjugaison d'un bilan clinique, d'un historique neurodéveloppemental individuel, ainsi que d'une estimation psychologique des forces et des faiblesses de la personne. L'usage de l'Interview diagnostique pour les troubles sociaux et de communication (Diagnostic interview for social and communication disorders ou DISCO) est préconisée. 
 Les traitements conseillés afin de prévenir l'aggravation de tels symptômes sont listés par Wing et Shah :
-l'adoption d'un programme afin de réduire les facteurs de stress dans la vie, en fournissant des objectifs et des facteurs de stimulation. Les principes de l'approche TEACCH sont évoqués, en tant que modèles de la structuration de l'environnement quotidien[15] ;
-une éducation aux symptômes de ce type destinée à l'environnement proche de la personne. Il est particulièrement conseillé de ne pas assimiler une excitation ressemblant à la catatonie à des comportements problématiques ou d'opposition, et de ne pas confondre les symptômes passifs avec de la paresse[15] ;
-l'emploi de prompts afin de permettre aux personnes atteintes de catatonie de reprendre le contrôle du système nerveux central et de gérer les frustrations générées par l'impossibilité croissante de se mouvoir, ainsi que les difficultés à s'arrêter une fois un processus répétitif initié[15].
-Les traitements classiques de la stupeur catatonique, à savoir l'électroconvulsivothérapie et le lorazépam, ne montrent guère d'efficacité selon elles, face à ce phénomène particulier de catatonie autistique[15].
+l'adoption d'un programme afin de réduire les facteurs de stress dans la vie, en fournissant des objectifs et des facteurs de stimulation. Les principes de l'approche TEACCH sont évoqués, en tant que modèles de la structuration de l'environnement quotidien ;
+une éducation aux symptômes de ce type destinée à l'environnement proche de la personne. Il est particulièrement conseillé de ne pas assimiler une excitation ressemblant à la catatonie à des comportements problématiques ou d'opposition, et de ne pas confondre les symptômes passifs avec de la paresse ;
+l'emploi de prompts afin de permettre aux personnes atteintes de catatonie de reprendre le contrôle du système nerveux central et de gérer les frustrations générées par l'impossibilité croissante de se mouvoir, ainsi que les difficultés à s'arrêter une fois un processus répétitif initié.
+Les traitements classiques de la stupeur catatonique, à savoir l'électroconvulsivothérapie et le lorazépam, ne montrent guère d'efficacité selon elles, face à ce phénomène particulier de catatonie autistique.
 </t>
         </is>
       </c>
